--- a/OnBoard/output/trust/catch/Catch_Trust_45.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_45.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1257,19 +1257,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hippocampus guttulatus</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>HIPPGUT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G22">
-        <v>-0.001</v>
+        <v>0.095</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1298,19 +1298,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hippocampus hippocampus</t>
+          <t>Sepia officinalis</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>HIPPHIC</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="G23">
-        <v>-0.001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1339,16 +1339,16 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Serranus hepatus</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.095</v>
+        <v>0.06</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1380,19 +1380,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.08500000000000001</v>
+        <v>1.711</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1421,19 +1421,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Serranus hepatus</t>
+          <t>Spicara flexuosa</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SPICFLE</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1462,22 +1462,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G27">
-        <v>1.711</v>
+        <v>0.012</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>71.69</v>
       </c>
     </row>
     <row r="28">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1503,22 +1503,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Spicara flexuosa</t>
+          <t>Actiniaria nd</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SPICFLE</t>
+          <t>ACTINND</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="29">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1544,22 +1544,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Aequipecten opercularis</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>71.69017543859648</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="30">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chlamys glabra</t>
+          <t>Anomia ephippium</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>ANOMEPH</t>
         </is>
       </c>
       <c r="G30">
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>71.69017543859648</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="31">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1626,12 +1626,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Actiniaria nd</t>
+          <t>Antalis inaequicostata</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ACTINND</t>
+          <t>DENTINA</t>
         </is>
       </c>
       <c r="G31">
@@ -1641,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="32">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1667,22 +1667,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Aequipecten opercularis</t>
+          <t>Ascidiella aspersa</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>ASCIASP</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.005</v>
+        <v>0.028</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I32">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="33">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1708,22 +1708,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Anomia ephippium</t>
+          <t>Aspidosiphon muelleri muelleri</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ANOMEPH</t>
+          <t>ASPIMUE</t>
         </is>
       </c>
       <c r="G33">
         <v>0.001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1749,22 +1749,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Antalis inaequicostata</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DENTINA</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I34">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="35">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ascidiella aspersa</t>
+          <t>Calyptraea chinensis</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ASCIASP</t>
+          <t>CALICHI</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.028</v>
+        <v>0.001</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="36">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Aspidosiphon muelleri muelleri</t>
+          <t>Chlamys varia</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ASPIMUE</t>
+          <t>CHLAVAR</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.001</v>
+        <v>0.036</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I36">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="37">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1872,22 +1872,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Coralligenous concretions</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>CORACON</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.004</v>
+        <v>0.06</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="38">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Calyptraea chinensis</t>
+          <t>Epitonium commune</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CALICHI</t>
+          <t>EPITCOM</t>
         </is>
       </c>
       <c r="G38">
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="39">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1954,22 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Chlamys varia</t>
+          <t>Eunicidae nd</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CHLAVAR</t>
+          <t>EUNIND</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.036</v>
+        <v>0.001</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="40">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1995,22 +1995,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Coralligenous concretions</t>
+          <t>Modiolus barbatus</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CORACON</t>
+          <t>MODIBAR</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.06</v>
+        <v>0.024</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I40">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="41">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2036,12 +2036,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Epitonium commune</t>
+          <t>Nucula nitidosa</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EPITCOM</t>
+          <t>NUCUNIT</t>
         </is>
       </c>
       <c r="G41">
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="42">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2077,22 +2077,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Eunicidae nd</t>
+          <t>Ophiothrix fragilis</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>EUNIND</t>
+          <t>OPHIFRA</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.001</v>
+        <v>3.396</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3396</v>
       </c>
       <c r="I42">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="43">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2118,22 +2118,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Modiolus barbatus</t>
+          <t>Ophiotrix quinquemaculata</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MODIBAR</t>
+          <t>OPHIQUI</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.024</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H43">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="I43">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="44">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2159,22 +2159,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Nucula nitidosa</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NUCUNIT</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I44">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="45">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2200,22 +2200,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ophiothrix fragilis</t>
+          <t>Paguristes eremita</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>OPHIFRA</t>
+          <t>PAGUERE</t>
         </is>
       </c>
       <c r="G45">
-        <v>3.396</v>
+        <v>0.059</v>
       </c>
       <c r="H45">
-        <v>3396</v>
+        <v>59</v>
       </c>
       <c r="I45">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="46">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2241,22 +2241,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ophiotrix quinquemaculata</t>
+          <t>Pagurus cuanensis</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>OPHIQUI</t>
+          <t>PAGUCUA</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.06900000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="H46">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="47">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2282,22 +2282,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Parvicardium sp.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>PARVICA</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.011</v>
+        <v>0.001</v>
       </c>
       <c r="H47">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="48">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2323,22 +2323,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Paguristes eremita</t>
+          <t>Phascolion strombus</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PAGUERE</t>
+          <t>PHASSTR</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.059</v>
+        <v>0.001</v>
       </c>
       <c r="H48">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="49">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Pagurus cuanensis</t>
+          <t>Pilumnus spinifer</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PAGUCUA</t>
+          <t>PILUSPI</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="50">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Parvicardium sp.</t>
+          <t>Pisidia sp</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PARVICA</t>
+          <t>PISIDSP</t>
         </is>
       </c>
       <c r="G50">
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="I50">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="51">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2446,22 +2446,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Phascolion strombus</t>
+          <t>Polychaeta n.d. Tubes</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PHASSTR</t>
+          <t>TUBEPOL</t>
         </is>
       </c>
       <c r="G51">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="52">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2487,22 +2487,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Pilumnus spinifer</t>
+          <t>Porifera nd</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PILUSPI</t>
+          <t>PORIFND</t>
         </is>
       </c>
       <c r="G52">
-        <v>0.001</v>
+        <v>1.463</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I52">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="53">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2528,22 +2528,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pisidia sp</t>
+          <t>Psammechinus microtuberculatus</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>PISIDSP</t>
+          <t>PSAMMIC</t>
         </is>
       </c>
       <c r="G53">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="54">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2569,22 +2569,22 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Polychaeta n.d. Tubes</t>
+          <t>Serpula vermicularis</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TUBEPOL</t>
+          <t>SERPVER</t>
         </is>
       </c>
       <c r="G54">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="55">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2610,22 +2610,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Porifera nd</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>PORIFND</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G55">
-        <v>1.463</v>
+        <v>1.043</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I55">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="56">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2651,22 +2651,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Psammechinus microtuberculatus</t>
+          <t>Stones NA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>PSAMMIC</t>
+          <t>STONES</t>
         </is>
       </c>
       <c r="G56">
-        <v>0.012</v>
+        <v>0.057</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I56">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="57">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2692,22 +2692,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Serpula vermicularis</t>
+          <t>Tellina distorta</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SERPVER</t>
+          <t>TELLDIS</t>
         </is>
       </c>
       <c r="G57">
         <v>0.001</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="58">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2733,22 +2733,22 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Tethya aurantium</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>TETHAUR</t>
         </is>
       </c>
       <c r="G58">
-        <v>1.043</v>
+        <v>0.028</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="59">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2774,22 +2774,22 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Stones NA</t>
+          <t>Timoclea ovata</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>STONES</t>
+          <t>TIMOOVA</t>
         </is>
       </c>
       <c r="G59">
-        <v>0.057</v>
+        <v>0.001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="60">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2815,22 +2815,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Tellina distorta</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>TELLDIS</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G60">
         <v>0.001</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
     <row r="61">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2856,145 +2856,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Tethya aurantium</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>TETHAUR</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G61">
-        <v>0.028</v>
+        <v>0.021</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I61">
-        <v>165.0371929824561</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Timoclea ovata</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>TIMOOVA</t>
-        </is>
-      </c>
-      <c r="G62">
-        <v>0.001</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>165.0371929824561</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Turritella communis</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>TURRCOM</t>
-        </is>
-      </c>
-      <c r="G63">
-        <v>0.001</v>
-      </c>
-      <c r="H63">
-        <v>2</v>
-      </c>
-      <c r="I63">
-        <v>165.0371929824561</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G64">
-        <v>0.021</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>165.0371929824561</v>
+        <v>165.0370175438596</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_45.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_45.xlsx
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.006</v>
+        <v>0.713</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="G18">
-        <v>0.008999999999999999</v>
+        <v>0.647</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="I27">
-        <v>71.69</v>
+        <v>71.63403508771928</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="29">
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="30">
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="31">
@@ -1641,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="32">
@@ -1682,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="I32">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="33">
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="34">
@@ -1764,7 +1764,7 @@
         <v>-1</v>
       </c>
       <c r="I34">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="35">
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="36">
@@ -1846,7 +1846,7 @@
         <v>9</v>
       </c>
       <c r="I36">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="37">
@@ -1887,7 +1887,7 @@
         <v>-1</v>
       </c>
       <c r="I37">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="38">
@@ -1928,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="39">
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="40">
@@ -2010,7 +2010,7 @@
         <v>7</v>
       </c>
       <c r="I40">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="41">
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="42">
@@ -2092,7 +2092,7 @@
         <v>3396</v>
       </c>
       <c r="I42">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="43">
@@ -2133,7 +2133,7 @@
         <v>69</v>
       </c>
       <c r="I43">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="44">
@@ -2174,7 +2174,7 @@
         <v>11</v>
       </c>
       <c r="I44">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="45">
@@ -2215,7 +2215,7 @@
         <v>59</v>
       </c>
       <c r="I45">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="46">
@@ -2256,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="I46">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="47">
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="48">
@@ -2338,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="I48">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="49">
@@ -2379,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="I49">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="50">
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="I50">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="51">
@@ -2461,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="I51">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="52">
@@ -2502,7 +2502,7 @@
         <v>-1</v>
       </c>
       <c r="I52">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="53">
@@ -2543,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="I53">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="54">
@@ -2584,7 +2584,7 @@
         <v>2</v>
       </c>
       <c r="I54">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="55">
@@ -2625,7 +2625,7 @@
         <v>-1</v>
       </c>
       <c r="I55">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="56">
@@ -2666,7 +2666,7 @@
         <v>-1</v>
       </c>
       <c r="I56">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="57">
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="58">
@@ -2748,7 +2748,7 @@
         <v>2</v>
       </c>
       <c r="I58">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="59">
@@ -2789,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="60">
@@ -2830,7 +2830,7 @@
         <v>2</v>
       </c>
       <c r="I60">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
     <row r="61">
@@ -2871,7 +2871,7 @@
         <v>-1</v>
       </c>
       <c r="I61">
-        <v>165.0370175438596</v>
+        <v>164.9190350877193</v>
       </c>
     </row>
   </sheetData>
